--- a/public/excel/sample.xlsx
+++ b/public/excel/sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA777D9-3BEF-4EEB-A7AB-44F9720A6579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tên</t>
   </si>
@@ -39,85 +38,28 @@
     <t>Ngày sinh</t>
   </si>
   <si>
-    <t>Thành phố</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Ngân</t>
-  </si>
-  <si>
-    <t>Hậu</t>
-  </si>
-  <si>
-    <t>Hồ Linh</t>
-  </si>
-  <si>
-    <t>Đạt</t>
-  </si>
-  <si>
-    <t>Thảo</t>
-  </si>
-  <si>
-    <t>Thịnh</t>
-  </si>
-  <si>
-    <t>Ngọc Linh</t>
-  </si>
-  <si>
-    <t>Ngọc</t>
-  </si>
-  <si>
     <t>Thắng</t>
   </si>
   <si>
-    <t>Quang</t>
-  </si>
-  <si>
-    <t>Phong</t>
-  </si>
-  <si>
-    <t>Thuật</t>
-  </si>
-  <si>
-    <t>0335725609</t>
-  </si>
-  <si>
-    <t>0936942738</t>
-  </si>
-  <si>
-    <t>0384470618</t>
-  </si>
-  <si>
-    <t>0964305701</t>
-  </si>
-  <si>
-    <t>0365433446</t>
-  </si>
-  <si>
-    <t>0348999126</t>
-  </si>
-  <si>
-    <t>0398307207</t>
-  </si>
-  <si>
-    <t>0388868067</t>
-  </si>
-  <si>
     <t>0982162796</t>
   </si>
   <si>
-    <t>0382252561</t>
-  </si>
-  <si>
-    <t>0868582002</t>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Thông báo 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,8 +430,8 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -509,105 +451,23 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1">
-        <v>981185620</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
